--- a/SeleniumGrid/attachment/BulkData.xlsx
+++ b/SeleniumGrid/attachment/BulkData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EdaatWebAutomation\EdaatWebAutomation\SeleniumGrid\attachment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LetestEdaat_GitCode\LatestEdaatWebAutomation\SeleniumGrid\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E43FC-4D20-4C62-AAD5-650B439FECB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE51B9-5C3B-4F5E-93CF-DBEFE7C38024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClientsInfoDTO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
   <si>
     <t>FirstNameAr</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J968"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -766,6 +766,4234 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>9743856771</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1678988945</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3456879845</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>9743856771</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1678988946</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3456879846</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9743856771</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1678988948</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3456879848</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>9743856771</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1678988949</v>
+      </c>
+      <c r="I13" s="8">
+        <v>3456879849</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>9743856771</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1678988950</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3456879850</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>9743856771</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1678988951</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3456879851</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>9743856771</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1678988952</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3456879852</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>9743856771</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1678988953</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3456879853</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>9743856771</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1678988954</v>
+      </c>
+      <c r="I18" s="8">
+        <v>3456879854</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>9743856771</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1678988955</v>
+      </c>
+      <c r="I19" s="8">
+        <v>3456879855</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>9743856771</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1678988956</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3456879856</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>9743856771</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1678988957</v>
+      </c>
+      <c r="I21" s="8">
+        <v>3456879857</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>9743856771</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1678988958</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3456879858</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>9743856771</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1678988959</v>
+      </c>
+      <c r="I23" s="8">
+        <v>3456879859</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="8:9">
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="8:9">
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="8:9">
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="8:9">
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="8:9">
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="8:9">
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="8:9">
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="8:9">
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="8:9">
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="8:9">
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="8:9">
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="8:9">
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="8:9">
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="8:9">
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="8:9">
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="8:9">
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="8:9">
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="8:9">
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="8:9">
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="8:9">
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="8:9">
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="8:9">
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="8:9">
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="8:9">
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="8:9">
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="8:9">
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="8:9">
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="8:9">
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="8:9">
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="8:9">
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="8:9">
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="8:9">
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="8:9">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="8:9">
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="8:9">
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="8:9">
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="8:9">
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="8:9">
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="8:9">
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="8:9">
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="8:9">
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="8:9">
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="8:9">
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="8:9">
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="8:9">
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="8:9">
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="8:9">
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="8:9">
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="8:9">
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="8:9">
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="8:9">
+      <c r="H109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="8:9">
+      <c r="H110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="8:9">
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="8:9">
+      <c r="H112"/>
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="8:9">
+      <c r="H113"/>
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="8:9">
+      <c r="H114"/>
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="8:9">
+      <c r="H115"/>
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="8:9">
+      <c r="H116"/>
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="8:9">
+      <c r="H117"/>
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="8:9">
+      <c r="H118"/>
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="8:9">
+      <c r="H119"/>
+      <c r="I119"/>
+    </row>
+    <row r="120" spans="8:9">
+      <c r="H120"/>
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="8:9">
+      <c r="H121"/>
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="8:9">
+      <c r="H122"/>
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="8:9">
+      <c r="H123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="8:9">
+      <c r="H124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="8:9">
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="8:9">
+      <c r="H126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="8:9">
+      <c r="H127"/>
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="8:9">
+      <c r="H128"/>
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129"/>
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="8:9">
+      <c r="H130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="8:9">
+      <c r="H131"/>
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="8:9">
+      <c r="H132"/>
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="8:9">
+      <c r="H133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="8:9">
+      <c r="H134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="8:9">
+      <c r="H135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136" spans="8:9">
+      <c r="H136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="8:9">
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="8:9">
+      <c r="H138"/>
+      <c r="I138"/>
+    </row>
+    <row r="139" spans="8:9">
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="8:9">
+      <c r="H140"/>
+      <c r="I140"/>
+    </row>
+    <row r="141" spans="8:9">
+      <c r="H141"/>
+      <c r="I141"/>
+    </row>
+    <row r="142" spans="8:9">
+      <c r="H142"/>
+      <c r="I142"/>
+    </row>
+    <row r="143" spans="8:9">
+      <c r="H143"/>
+      <c r="I143"/>
+    </row>
+    <row r="144" spans="8:9">
+      <c r="H144"/>
+      <c r="I144"/>
+    </row>
+    <row r="145" spans="8:9">
+      <c r="H145"/>
+      <c r="I145"/>
+    </row>
+    <row r="146" spans="8:9">
+      <c r="H146"/>
+      <c r="I146"/>
+    </row>
+    <row r="147" spans="8:9">
+      <c r="H147"/>
+      <c r="I147"/>
+    </row>
+    <row r="148" spans="8:9">
+      <c r="H148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149"/>
+      <c r="I149"/>
+    </row>
+    <row r="150" spans="8:9">
+      <c r="H150"/>
+      <c r="I150"/>
+    </row>
+    <row r="151" spans="8:9">
+      <c r="H151"/>
+      <c r="I151"/>
+    </row>
+    <row r="152" spans="8:9">
+      <c r="H152"/>
+      <c r="I152"/>
+    </row>
+    <row r="153" spans="8:9">
+      <c r="H153"/>
+      <c r="I153"/>
+    </row>
+    <row r="154" spans="8:9">
+      <c r="H154"/>
+      <c r="I154"/>
+    </row>
+    <row r="155" spans="8:9">
+      <c r="H155"/>
+      <c r="I155"/>
+    </row>
+    <row r="156" spans="8:9">
+      <c r="H156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157" spans="8:9">
+      <c r="H157"/>
+      <c r="I157"/>
+    </row>
+    <row r="158" spans="8:9">
+      <c r="H158"/>
+      <c r="I158"/>
+    </row>
+    <row r="159" spans="8:9">
+      <c r="H159"/>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="8:9">
+      <c r="H160"/>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="8:9">
+      <c r="H161"/>
+      <c r="I161"/>
+    </row>
+    <row r="162" spans="8:9">
+      <c r="H162"/>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="8:9">
+      <c r="H163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="8:9">
+      <c r="H164"/>
+      <c r="I164"/>
+    </row>
+    <row r="165" spans="8:9">
+      <c r="H165"/>
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="8:9">
+      <c r="H166"/>
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="8:9">
+      <c r="H167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="8:9">
+      <c r="H168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="8:9">
+      <c r="H169"/>
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="8:9">
+      <c r="H170"/>
+      <c r="I170"/>
+    </row>
+    <row r="171" spans="8:9">
+      <c r="H171"/>
+      <c r="I171"/>
+    </row>
+    <row r="172" spans="8:9">
+      <c r="H172"/>
+      <c r="I172"/>
+    </row>
+    <row r="173" spans="8:9">
+      <c r="H173"/>
+      <c r="I173"/>
+    </row>
+    <row r="174" spans="8:9">
+      <c r="H174"/>
+      <c r="I174"/>
+    </row>
+    <row r="175" spans="8:9">
+      <c r="H175"/>
+      <c r="I175"/>
+    </row>
+    <row r="176" spans="8:9">
+      <c r="H176"/>
+      <c r="I176"/>
+    </row>
+    <row r="177" spans="8:9">
+      <c r="H177"/>
+      <c r="I177"/>
+    </row>
+    <row r="178" spans="8:9">
+      <c r="H178"/>
+      <c r="I178"/>
+    </row>
+    <row r="179" spans="8:9">
+      <c r="H179"/>
+      <c r="I179"/>
+    </row>
+    <row r="180" spans="8:9">
+      <c r="H180"/>
+      <c r="I180"/>
+    </row>
+    <row r="181" spans="8:9">
+      <c r="H181"/>
+      <c r="I181"/>
+    </row>
+    <row r="182" spans="8:9">
+      <c r="H182"/>
+      <c r="I182"/>
+    </row>
+    <row r="183" spans="8:9">
+      <c r="H183"/>
+      <c r="I183"/>
+    </row>
+    <row r="184" spans="8:9">
+      <c r="H184"/>
+      <c r="I184"/>
+    </row>
+    <row r="185" spans="8:9">
+      <c r="H185"/>
+      <c r="I185"/>
+    </row>
+    <row r="186" spans="8:9">
+      <c r="H186"/>
+      <c r="I186"/>
+    </row>
+    <row r="187" spans="8:9">
+      <c r="H187"/>
+      <c r="I187"/>
+    </row>
+    <row r="188" spans="8:9">
+      <c r="H188"/>
+      <c r="I188"/>
+    </row>
+    <row r="189" spans="8:9">
+      <c r="H189"/>
+      <c r="I189"/>
+    </row>
+    <row r="190" spans="8:9">
+      <c r="H190"/>
+      <c r="I190"/>
+    </row>
+    <row r="191" spans="8:9">
+      <c r="H191"/>
+      <c r="I191"/>
+    </row>
+    <row r="192" spans="8:9">
+      <c r="H192"/>
+      <c r="I192"/>
+    </row>
+    <row r="193" spans="8:9">
+      <c r="H193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194" spans="8:9">
+      <c r="H194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195" spans="8:9">
+      <c r="H195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196" spans="8:9">
+      <c r="H196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197" spans="8:9">
+      <c r="H197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198" spans="8:9">
+      <c r="H198"/>
+      <c r="I198"/>
+    </row>
+    <row r="199" spans="8:9">
+      <c r="H199"/>
+      <c r="I199"/>
+    </row>
+    <row r="200" spans="8:9">
+      <c r="H200"/>
+      <c r="I200"/>
+    </row>
+    <row r="201" spans="8:9">
+      <c r="H201"/>
+      <c r="I201"/>
+    </row>
+    <row r="202" spans="8:9">
+      <c r="H202"/>
+      <c r="I202"/>
+    </row>
+    <row r="203" spans="8:9">
+      <c r="H203"/>
+      <c r="I203"/>
+    </row>
+    <row r="204" spans="8:9">
+      <c r="H204"/>
+      <c r="I204"/>
+    </row>
+    <row r="205" spans="8:9">
+      <c r="H205"/>
+      <c r="I205"/>
+    </row>
+    <row r="206" spans="8:9">
+      <c r="H206"/>
+      <c r="I206"/>
+    </row>
+    <row r="207" spans="8:9">
+      <c r="H207"/>
+      <c r="I207"/>
+    </row>
+    <row r="208" spans="8:9">
+      <c r="H208"/>
+      <c r="I208"/>
+    </row>
+    <row r="209" spans="8:9">
+      <c r="H209"/>
+      <c r="I209"/>
+    </row>
+    <row r="210" spans="8:9">
+      <c r="H210"/>
+      <c r="I210"/>
+    </row>
+    <row r="211" spans="8:9">
+      <c r="H211"/>
+      <c r="I211"/>
+    </row>
+    <row r="212" spans="8:9">
+      <c r="H212"/>
+      <c r="I212"/>
+    </row>
+    <row r="213" spans="8:9">
+      <c r="H213"/>
+      <c r="I213"/>
+    </row>
+    <row r="214" spans="8:9">
+      <c r="H214"/>
+      <c r="I214"/>
+    </row>
+    <row r="215" spans="8:9">
+      <c r="H215"/>
+      <c r="I215"/>
+    </row>
+    <row r="216" spans="8:9">
+      <c r="H216"/>
+      <c r="I216"/>
+    </row>
+    <row r="217" spans="8:9">
+      <c r="H217"/>
+      <c r="I217"/>
+    </row>
+    <row r="218" spans="8:9">
+      <c r="H218"/>
+      <c r="I218"/>
+    </row>
+    <row r="219" spans="8:9">
+      <c r="H219"/>
+      <c r="I219"/>
+    </row>
+    <row r="220" spans="8:9">
+      <c r="H220"/>
+      <c r="I220"/>
+    </row>
+    <row r="221" spans="8:9">
+      <c r="H221"/>
+      <c r="I221"/>
+    </row>
+    <row r="222" spans="8:9">
+      <c r="H222"/>
+      <c r="I222"/>
+    </row>
+    <row r="223" spans="8:9">
+      <c r="H223"/>
+      <c r="I223"/>
+    </row>
+    <row r="224" spans="8:9">
+      <c r="H224"/>
+      <c r="I224"/>
+    </row>
+    <row r="225" spans="8:9">
+      <c r="H225"/>
+      <c r="I225"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226"/>
+      <c r="I226"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227"/>
+      <c r="I227"/>
+    </row>
+    <row r="228" spans="8:9">
+      <c r="H228"/>
+      <c r="I228"/>
+    </row>
+    <row r="229" spans="8:9">
+      <c r="H229"/>
+      <c r="I229"/>
+    </row>
+    <row r="230" spans="8:9">
+      <c r="H230"/>
+      <c r="I230"/>
+    </row>
+    <row r="231" spans="8:9">
+      <c r="H231"/>
+      <c r="I231"/>
+    </row>
+    <row r="232" spans="8:9">
+      <c r="H232"/>
+      <c r="I232"/>
+    </row>
+    <row r="233" spans="8:9">
+      <c r="H233"/>
+      <c r="I233"/>
+    </row>
+    <row r="234" spans="8:9">
+      <c r="H234"/>
+      <c r="I234"/>
+    </row>
+    <row r="235" spans="8:9">
+      <c r="H235"/>
+      <c r="I235"/>
+    </row>
+    <row r="236" spans="8:9">
+      <c r="H236"/>
+      <c r="I236"/>
+    </row>
+    <row r="237" spans="8:9">
+      <c r="H237"/>
+      <c r="I237"/>
+    </row>
+    <row r="238" spans="8:9">
+      <c r="H238"/>
+      <c r="I238"/>
+    </row>
+    <row r="239" spans="8:9">
+      <c r="H239"/>
+      <c r="I239"/>
+    </row>
+    <row r="240" spans="8:9">
+      <c r="H240"/>
+      <c r="I240"/>
+    </row>
+    <row r="241" spans="8:9">
+      <c r="H241"/>
+      <c r="I241"/>
+    </row>
+    <row r="242" spans="8:9">
+      <c r="H242"/>
+      <c r="I242"/>
+    </row>
+    <row r="243" spans="8:9">
+      <c r="H243"/>
+      <c r="I243"/>
+    </row>
+    <row r="244" spans="8:9">
+      <c r="H244"/>
+      <c r="I244"/>
+    </row>
+    <row r="245" spans="8:9">
+      <c r="H245"/>
+      <c r="I245"/>
+    </row>
+    <row r="246" spans="8:9">
+      <c r="H246"/>
+      <c r="I246"/>
+    </row>
+    <row r="247" spans="8:9">
+      <c r="H247"/>
+      <c r="I247"/>
+    </row>
+    <row r="248" spans="8:9">
+      <c r="H248"/>
+      <c r="I248"/>
+    </row>
+    <row r="249" spans="8:9">
+      <c r="H249"/>
+      <c r="I249"/>
+    </row>
+    <row r="250" spans="8:9">
+      <c r="H250"/>
+      <c r="I250"/>
+    </row>
+    <row r="251" spans="8:9">
+      <c r="H251"/>
+      <c r="I251"/>
+    </row>
+    <row r="252" spans="8:9">
+      <c r="H252"/>
+      <c r="I252"/>
+    </row>
+    <row r="253" spans="8:9">
+      <c r="H253"/>
+      <c r="I253"/>
+    </row>
+    <row r="254" spans="8:9">
+      <c r="H254"/>
+      <c r="I254"/>
+    </row>
+    <row r="255" spans="8:9">
+      <c r="H255"/>
+      <c r="I255"/>
+    </row>
+    <row r="256" spans="8:9">
+      <c r="H256"/>
+      <c r="I256"/>
+    </row>
+    <row r="257" spans="8:9">
+      <c r="H257"/>
+      <c r="I257"/>
+    </row>
+    <row r="258" spans="8:9">
+      <c r="H258"/>
+      <c r="I258"/>
+    </row>
+    <row r="259" spans="8:9">
+      <c r="H259"/>
+      <c r="I259"/>
+    </row>
+    <row r="260" spans="8:9">
+      <c r="H260"/>
+      <c r="I260"/>
+    </row>
+    <row r="261" spans="8:9">
+      <c r="H261"/>
+      <c r="I261"/>
+    </row>
+    <row r="262" spans="8:9">
+      <c r="H262"/>
+      <c r="I262"/>
+    </row>
+    <row r="263" spans="8:9">
+      <c r="H263"/>
+      <c r="I263"/>
+    </row>
+    <row r="264" spans="8:9">
+      <c r="H264"/>
+      <c r="I264"/>
+    </row>
+    <row r="265" spans="8:9">
+      <c r="H265"/>
+      <c r="I265"/>
+    </row>
+    <row r="266" spans="8:9">
+      <c r="H266"/>
+      <c r="I266"/>
+    </row>
+    <row r="267" spans="8:9">
+      <c r="H267"/>
+      <c r="I267"/>
+    </row>
+    <row r="268" spans="8:9">
+      <c r="H268"/>
+      <c r="I268"/>
+    </row>
+    <row r="269" spans="8:9">
+      <c r="H269"/>
+      <c r="I269"/>
+    </row>
+    <row r="270" spans="8:9">
+      <c r="H270"/>
+      <c r="I270"/>
+    </row>
+    <row r="271" spans="8:9">
+      <c r="H271"/>
+      <c r="I271"/>
+    </row>
+    <row r="272" spans="8:9">
+      <c r="H272"/>
+      <c r="I272"/>
+    </row>
+    <row r="273" spans="8:9">
+      <c r="H273"/>
+      <c r="I273"/>
+    </row>
+    <row r="274" spans="8:9">
+      <c r="H274"/>
+      <c r="I274"/>
+    </row>
+    <row r="275" spans="8:9">
+      <c r="H275"/>
+      <c r="I275"/>
+    </row>
+    <row r="276" spans="8:9">
+      <c r="H276"/>
+      <c r="I276"/>
+    </row>
+    <row r="277" spans="8:9">
+      <c r="H277"/>
+      <c r="I277"/>
+    </row>
+    <row r="278" spans="8:9">
+      <c r="H278"/>
+      <c r="I278"/>
+    </row>
+    <row r="279" spans="8:9">
+      <c r="H279"/>
+      <c r="I279"/>
+    </row>
+    <row r="280" spans="8:9">
+      <c r="H280"/>
+      <c r="I280"/>
+    </row>
+    <row r="281" spans="8:9">
+      <c r="H281"/>
+      <c r="I281"/>
+    </row>
+    <row r="282" spans="8:9">
+      <c r="H282"/>
+      <c r="I282"/>
+    </row>
+    <row r="283" spans="8:9">
+      <c r="H283"/>
+      <c r="I283"/>
+    </row>
+    <row r="284" spans="8:9">
+      <c r="H284"/>
+      <c r="I284"/>
+    </row>
+    <row r="285" spans="8:9">
+      <c r="H285"/>
+      <c r="I285"/>
+    </row>
+    <row r="286" spans="8:9">
+      <c r="H286"/>
+      <c r="I286"/>
+    </row>
+    <row r="287" spans="8:9">
+      <c r="H287"/>
+      <c r="I287"/>
+    </row>
+    <row r="288" spans="8:9">
+      <c r="H288"/>
+      <c r="I288"/>
+    </row>
+    <row r="289" spans="8:9">
+      <c r="H289"/>
+      <c r="I289"/>
+    </row>
+    <row r="290" spans="8:9">
+      <c r="H290"/>
+      <c r="I290"/>
+    </row>
+    <row r="291" spans="8:9">
+      <c r="H291"/>
+      <c r="I291"/>
+    </row>
+    <row r="292" spans="8:9">
+      <c r="H292"/>
+      <c r="I292"/>
+    </row>
+    <row r="293" spans="8:9">
+      <c r="H293"/>
+      <c r="I293"/>
+    </row>
+    <row r="294" spans="8:9">
+      <c r="H294"/>
+      <c r="I294"/>
+    </row>
+    <row r="295" spans="8:9">
+      <c r="H295"/>
+      <c r="I295"/>
+    </row>
+    <row r="296" spans="8:9">
+      <c r="H296"/>
+      <c r="I296"/>
+    </row>
+    <row r="297" spans="8:9">
+      <c r="H297"/>
+      <c r="I297"/>
+    </row>
+    <row r="298" spans="8:9">
+      <c r="H298"/>
+      <c r="I298"/>
+    </row>
+    <row r="299" spans="8:9">
+      <c r="H299"/>
+      <c r="I299"/>
+    </row>
+    <row r="300" spans="8:9">
+      <c r="H300"/>
+      <c r="I300"/>
+    </row>
+    <row r="301" spans="8:9">
+      <c r="H301"/>
+      <c r="I301"/>
+    </row>
+    <row r="302" spans="8:9">
+      <c r="H302"/>
+      <c r="I302"/>
+    </row>
+    <row r="303" spans="8:9">
+      <c r="H303"/>
+      <c r="I303"/>
+    </row>
+    <row r="304" spans="8:9">
+      <c r="H304"/>
+      <c r="I304"/>
+    </row>
+    <row r="305" spans="8:9">
+      <c r="H305"/>
+      <c r="I305"/>
+    </row>
+    <row r="306" spans="8:9">
+      <c r="H306"/>
+      <c r="I306"/>
+    </row>
+    <row r="307" spans="8:9">
+      <c r="H307"/>
+      <c r="I307"/>
+    </row>
+    <row r="308" spans="8:9">
+      <c r="H308"/>
+      <c r="I308"/>
+    </row>
+    <row r="309" spans="8:9">
+      <c r="H309"/>
+      <c r="I309"/>
+    </row>
+    <row r="310" spans="8:9">
+      <c r="H310"/>
+      <c r="I310"/>
+    </row>
+    <row r="311" spans="8:9">
+      <c r="H311"/>
+      <c r="I311"/>
+    </row>
+    <row r="312" spans="8:9">
+      <c r="H312"/>
+      <c r="I312"/>
+    </row>
+    <row r="313" spans="8:9">
+      <c r="H313"/>
+      <c r="I313"/>
+    </row>
+    <row r="314" spans="8:9">
+      <c r="H314"/>
+      <c r="I314"/>
+    </row>
+    <row r="315" spans="8:9">
+      <c r="H315"/>
+      <c r="I315"/>
+    </row>
+    <row r="316" spans="8:9">
+      <c r="H316"/>
+      <c r="I316"/>
+    </row>
+    <row r="317" spans="8:9">
+      <c r="H317"/>
+      <c r="I317"/>
+    </row>
+    <row r="318" spans="8:9">
+      <c r="H318"/>
+      <c r="I318"/>
+    </row>
+    <row r="319" spans="8:9">
+      <c r="H319"/>
+      <c r="I319"/>
+    </row>
+    <row r="320" spans="8:9">
+      <c r="H320"/>
+      <c r="I320"/>
+    </row>
+    <row r="321" spans="8:9">
+      <c r="H321"/>
+      <c r="I321"/>
+    </row>
+    <row r="322" spans="8:9">
+      <c r="H322"/>
+      <c r="I322"/>
+    </row>
+    <row r="323" spans="8:9">
+      <c r="H323"/>
+      <c r="I323"/>
+    </row>
+    <row r="324" spans="8:9">
+      <c r="H324"/>
+      <c r="I324"/>
+    </row>
+    <row r="325" spans="8:9">
+      <c r="H325"/>
+      <c r="I325"/>
+    </row>
+    <row r="326" spans="8:9">
+      <c r="H326"/>
+      <c r="I326"/>
+    </row>
+    <row r="327" spans="8:9">
+      <c r="H327"/>
+      <c r="I327"/>
+    </row>
+    <row r="328" spans="8:9">
+      <c r="H328"/>
+      <c r="I328"/>
+    </row>
+    <row r="329" spans="8:9">
+      <c r="H329"/>
+      <c r="I329"/>
+    </row>
+    <row r="330" spans="8:9">
+      <c r="H330"/>
+      <c r="I330"/>
+    </row>
+    <row r="331" spans="8:9">
+      <c r="H331"/>
+      <c r="I331"/>
+    </row>
+    <row r="332" spans="8:9">
+      <c r="H332"/>
+      <c r="I332"/>
+    </row>
+    <row r="333" spans="8:9">
+      <c r="H333"/>
+      <c r="I333"/>
+    </row>
+    <row r="334" spans="8:9">
+      <c r="H334"/>
+      <c r="I334"/>
+    </row>
+    <row r="335" spans="8:9">
+      <c r="H335"/>
+      <c r="I335"/>
+    </row>
+    <row r="336" spans="8:9">
+      <c r="H336"/>
+      <c r="I336"/>
+    </row>
+    <row r="337" spans="8:9">
+      <c r="H337"/>
+      <c r="I337"/>
+    </row>
+    <row r="338" spans="8:9">
+      <c r="H338"/>
+      <c r="I338"/>
+    </row>
+    <row r="339" spans="8:9">
+      <c r="H339"/>
+      <c r="I339"/>
+    </row>
+    <row r="340" spans="8:9">
+      <c r="H340"/>
+      <c r="I340"/>
+    </row>
+    <row r="341" spans="8:9">
+      <c r="H341"/>
+      <c r="I341"/>
+    </row>
+    <row r="342" spans="8:9">
+      <c r="H342"/>
+      <c r="I342"/>
+    </row>
+    <row r="343" spans="8:9">
+      <c r="H343"/>
+      <c r="I343"/>
+    </row>
+    <row r="344" spans="8:9">
+      <c r="H344"/>
+      <c r="I344"/>
+    </row>
+    <row r="345" spans="8:9">
+      <c r="H345"/>
+      <c r="I345"/>
+    </row>
+    <row r="346" spans="8:9">
+      <c r="H346"/>
+      <c r="I346"/>
+    </row>
+    <row r="347" spans="8:9">
+      <c r="H347"/>
+      <c r="I347"/>
+    </row>
+    <row r="348" spans="8:9">
+      <c r="H348"/>
+      <c r="I348"/>
+    </row>
+    <row r="349" spans="8:9">
+      <c r="H349"/>
+      <c r="I349"/>
+    </row>
+    <row r="350" spans="8:9">
+      <c r="H350"/>
+      <c r="I350"/>
+    </row>
+    <row r="351" spans="8:9">
+      <c r="H351"/>
+      <c r="I351"/>
+    </row>
+    <row r="352" spans="8:9">
+      <c r="H352"/>
+      <c r="I352"/>
+    </row>
+    <row r="353" spans="8:9">
+      <c r="H353"/>
+      <c r="I353"/>
+    </row>
+    <row r="354" spans="8:9">
+      <c r="H354"/>
+      <c r="I354"/>
+    </row>
+    <row r="355" spans="8:9">
+      <c r="H355"/>
+      <c r="I355"/>
+    </row>
+    <row r="356" spans="8:9">
+      <c r="H356"/>
+      <c r="I356"/>
+    </row>
+    <row r="357" spans="8:9">
+      <c r="H357"/>
+      <c r="I357"/>
+    </row>
+    <row r="358" spans="8:9">
+      <c r="H358"/>
+      <c r="I358"/>
+    </row>
+    <row r="359" spans="8:9">
+      <c r="H359"/>
+      <c r="I359"/>
+    </row>
+    <row r="360" spans="8:9">
+      <c r="H360"/>
+      <c r="I360"/>
+    </row>
+    <row r="361" spans="8:9">
+      <c r="H361"/>
+      <c r="I361"/>
+    </row>
+    <row r="362" spans="8:9">
+      <c r="H362"/>
+      <c r="I362"/>
+    </row>
+    <row r="363" spans="8:9">
+      <c r="H363"/>
+      <c r="I363"/>
+    </row>
+    <row r="364" spans="8:9">
+      <c r="H364"/>
+      <c r="I364"/>
+    </row>
+    <row r="365" spans="8:9">
+      <c r="H365"/>
+      <c r="I365"/>
+    </row>
+    <row r="366" spans="8:9">
+      <c r="H366"/>
+      <c r="I366"/>
+    </row>
+    <row r="367" spans="8:9">
+      <c r="H367"/>
+      <c r="I367"/>
+    </row>
+    <row r="368" spans="8:9">
+      <c r="H368"/>
+      <c r="I368"/>
+    </row>
+    <row r="369" spans="8:9">
+      <c r="H369"/>
+      <c r="I369"/>
+    </row>
+    <row r="370" spans="8:9">
+      <c r="H370"/>
+      <c r="I370"/>
+    </row>
+    <row r="371" spans="8:9">
+      <c r="H371"/>
+      <c r="I371"/>
+    </row>
+    <row r="372" spans="8:9">
+      <c r="H372"/>
+      <c r="I372"/>
+    </row>
+    <row r="373" spans="8:9">
+      <c r="H373"/>
+      <c r="I373"/>
+    </row>
+    <row r="374" spans="8:9">
+      <c r="H374"/>
+      <c r="I374"/>
+    </row>
+    <row r="375" spans="8:9">
+      <c r="H375"/>
+      <c r="I375"/>
+    </row>
+    <row r="376" spans="8:9">
+      <c r="H376"/>
+      <c r="I376"/>
+    </row>
+    <row r="377" spans="8:9">
+      <c r="H377"/>
+      <c r="I377"/>
+    </row>
+    <row r="378" spans="8:9">
+      <c r="H378"/>
+      <c r="I378"/>
+    </row>
+    <row r="379" spans="8:9">
+      <c r="H379"/>
+      <c r="I379"/>
+    </row>
+    <row r="380" spans="8:9">
+      <c r="H380"/>
+      <c r="I380"/>
+    </row>
+    <row r="381" spans="8:9">
+      <c r="H381"/>
+      <c r="I381"/>
+    </row>
+    <row r="382" spans="8:9">
+      <c r="H382"/>
+      <c r="I382"/>
+    </row>
+    <row r="383" spans="8:9">
+      <c r="H383"/>
+      <c r="I383"/>
+    </row>
+    <row r="384" spans="8:9">
+      <c r="H384"/>
+      <c r="I384"/>
+    </row>
+    <row r="385" spans="8:9">
+      <c r="H385"/>
+      <c r="I385"/>
+    </row>
+    <row r="386" spans="8:9">
+      <c r="H386"/>
+      <c r="I386"/>
+    </row>
+    <row r="387" spans="8:9">
+      <c r="H387"/>
+      <c r="I387"/>
+    </row>
+    <row r="388" spans="8:9">
+      <c r="H388"/>
+      <c r="I388"/>
+    </row>
+    <row r="389" spans="8:9">
+      <c r="H389"/>
+      <c r="I389"/>
+    </row>
+    <row r="390" spans="8:9">
+      <c r="H390"/>
+      <c r="I390"/>
+    </row>
+    <row r="391" spans="8:9">
+      <c r="H391"/>
+      <c r="I391"/>
+    </row>
+    <row r="392" spans="8:9">
+      <c r="H392"/>
+      <c r="I392"/>
+    </row>
+    <row r="393" spans="8:9">
+      <c r="H393"/>
+      <c r="I393"/>
+    </row>
+    <row r="394" spans="8:9">
+      <c r="H394"/>
+      <c r="I394"/>
+    </row>
+    <row r="395" spans="8:9">
+      <c r="H395"/>
+      <c r="I395"/>
+    </row>
+    <row r="396" spans="8:9">
+      <c r="H396"/>
+      <c r="I396"/>
+    </row>
+    <row r="397" spans="8:9">
+      <c r="H397"/>
+      <c r="I397"/>
+    </row>
+    <row r="398" spans="8:9">
+      <c r="H398"/>
+      <c r="I398"/>
+    </row>
+    <row r="399" spans="8:9">
+      <c r="H399"/>
+      <c r="I399"/>
+    </row>
+    <row r="400" spans="8:9">
+      <c r="H400"/>
+      <c r="I400"/>
+    </row>
+    <row r="401" spans="8:9">
+      <c r="H401"/>
+      <c r="I401"/>
+    </row>
+    <row r="402" spans="8:9">
+      <c r="H402"/>
+      <c r="I402"/>
+    </row>
+    <row r="403" spans="8:9">
+      <c r="H403"/>
+      <c r="I403"/>
+    </row>
+    <row r="404" spans="8:9">
+      <c r="H404"/>
+      <c r="I404"/>
+    </row>
+    <row r="405" spans="8:9">
+      <c r="H405"/>
+      <c r="I405"/>
+    </row>
+    <row r="406" spans="8:9">
+      <c r="H406"/>
+      <c r="I406"/>
+    </row>
+    <row r="407" spans="8:9">
+      <c r="H407"/>
+      <c r="I407"/>
+    </row>
+    <row r="408" spans="8:9">
+      <c r="H408"/>
+      <c r="I408"/>
+    </row>
+    <row r="409" spans="8:9">
+      <c r="H409"/>
+      <c r="I409"/>
+    </row>
+    <row r="410" spans="8:9">
+      <c r="H410"/>
+      <c r="I410"/>
+    </row>
+    <row r="411" spans="8:9">
+      <c r="H411"/>
+      <c r="I411"/>
+    </row>
+    <row r="412" spans="8:9">
+      <c r="H412"/>
+      <c r="I412"/>
+    </row>
+    <row r="413" spans="8:9">
+      <c r="H413"/>
+      <c r="I413"/>
+    </row>
+    <row r="414" spans="8:9">
+      <c r="H414"/>
+      <c r="I414"/>
+    </row>
+    <row r="415" spans="8:9">
+      <c r="H415"/>
+      <c r="I415"/>
+    </row>
+    <row r="416" spans="8:9">
+      <c r="H416"/>
+      <c r="I416"/>
+    </row>
+    <row r="417" spans="8:9">
+      <c r="H417"/>
+      <c r="I417"/>
+    </row>
+    <row r="418" spans="8:9">
+      <c r="H418"/>
+      <c r="I418"/>
+    </row>
+    <row r="419" spans="8:9">
+      <c r="H419"/>
+      <c r="I419"/>
+    </row>
+    <row r="420" spans="8:9">
+      <c r="H420"/>
+      <c r="I420"/>
+    </row>
+    <row r="421" spans="8:9">
+      <c r="H421"/>
+      <c r="I421"/>
+    </row>
+    <row r="422" spans="8:9">
+      <c r="H422"/>
+      <c r="I422"/>
+    </row>
+    <row r="423" spans="8:9">
+      <c r="H423"/>
+      <c r="I423"/>
+    </row>
+    <row r="424" spans="8:9">
+      <c r="H424"/>
+      <c r="I424"/>
+    </row>
+    <row r="425" spans="8:9">
+      <c r="H425"/>
+      <c r="I425"/>
+    </row>
+    <row r="426" spans="8:9">
+      <c r="H426"/>
+      <c r="I426"/>
+    </row>
+    <row r="427" spans="8:9">
+      <c r="H427"/>
+      <c r="I427"/>
+    </row>
+    <row r="428" spans="8:9">
+      <c r="H428"/>
+      <c r="I428"/>
+    </row>
+    <row r="429" spans="8:9">
+      <c r="H429"/>
+      <c r="I429"/>
+    </row>
+    <row r="430" spans="8:9">
+      <c r="H430"/>
+      <c r="I430"/>
+    </row>
+    <row r="431" spans="8:9">
+      <c r="H431"/>
+      <c r="I431"/>
+    </row>
+    <row r="432" spans="8:9">
+      <c r="H432"/>
+      <c r="I432"/>
+    </row>
+    <row r="433" spans="8:9">
+      <c r="H433"/>
+      <c r="I433"/>
+    </row>
+    <row r="434" spans="8:9">
+      <c r="H434"/>
+      <c r="I434"/>
+    </row>
+    <row r="435" spans="8:9">
+      <c r="H435"/>
+      <c r="I435"/>
+    </row>
+    <row r="436" spans="8:9">
+      <c r="H436"/>
+      <c r="I436"/>
+    </row>
+    <row r="437" spans="8:9">
+      <c r="H437"/>
+      <c r="I437"/>
+    </row>
+    <row r="438" spans="8:9">
+      <c r="H438"/>
+      <c r="I438"/>
+    </row>
+    <row r="439" spans="8:9">
+      <c r="H439"/>
+      <c r="I439"/>
+    </row>
+    <row r="440" spans="8:9">
+      <c r="H440"/>
+      <c r="I440"/>
+    </row>
+    <row r="441" spans="8:9">
+      <c r="H441"/>
+      <c r="I441"/>
+    </row>
+    <row r="442" spans="8:9">
+      <c r="H442"/>
+      <c r="I442"/>
+    </row>
+    <row r="443" spans="8:9">
+      <c r="H443"/>
+      <c r="I443"/>
+    </row>
+    <row r="444" spans="8:9">
+      <c r="H444"/>
+      <c r="I444"/>
+    </row>
+    <row r="445" spans="8:9">
+      <c r="H445"/>
+      <c r="I445"/>
+    </row>
+    <row r="446" spans="8:9">
+      <c r="H446"/>
+      <c r="I446"/>
+    </row>
+    <row r="447" spans="8:9">
+      <c r="H447"/>
+      <c r="I447"/>
+    </row>
+    <row r="448" spans="8:9">
+      <c r="H448"/>
+      <c r="I448"/>
+    </row>
+    <row r="449" spans="8:9">
+      <c r="H449"/>
+      <c r="I449"/>
+    </row>
+    <row r="450" spans="8:9">
+      <c r="H450"/>
+      <c r="I450"/>
+    </row>
+    <row r="451" spans="8:9">
+      <c r="H451"/>
+      <c r="I451"/>
+    </row>
+    <row r="452" spans="8:9">
+      <c r="H452"/>
+      <c r="I452"/>
+    </row>
+    <row r="453" spans="8:9">
+      <c r="H453"/>
+      <c r="I453"/>
+    </row>
+    <row r="454" spans="8:9">
+      <c r="H454"/>
+      <c r="I454"/>
+    </row>
+    <row r="455" spans="8:9">
+      <c r="H455"/>
+      <c r="I455"/>
+    </row>
+    <row r="456" spans="8:9">
+      <c r="H456"/>
+      <c r="I456"/>
+    </row>
+    <row r="457" spans="8:9">
+      <c r="H457"/>
+      <c r="I457"/>
+    </row>
+    <row r="458" spans="8:9">
+      <c r="H458"/>
+      <c r="I458"/>
+    </row>
+    <row r="459" spans="8:9">
+      <c r="H459"/>
+      <c r="I459"/>
+    </row>
+    <row r="460" spans="8:9">
+      <c r="H460"/>
+      <c r="I460"/>
+    </row>
+    <row r="461" spans="8:9">
+      <c r="H461"/>
+      <c r="I461"/>
+    </row>
+    <row r="462" spans="8:9">
+      <c r="H462"/>
+      <c r="I462"/>
+    </row>
+    <row r="463" spans="8:9">
+      <c r="H463"/>
+      <c r="I463"/>
+    </row>
+    <row r="464" spans="8:9">
+      <c r="H464"/>
+      <c r="I464"/>
+    </row>
+    <row r="465" spans="8:9">
+      <c r="H465"/>
+      <c r="I465"/>
+    </row>
+    <row r="466" spans="8:9">
+      <c r="H466"/>
+      <c r="I466"/>
+    </row>
+    <row r="467" spans="8:9">
+      <c r="H467"/>
+      <c r="I467"/>
+    </row>
+    <row r="468" spans="8:9">
+      <c r="H468"/>
+      <c r="I468"/>
+    </row>
+    <row r="469" spans="8:9">
+      <c r="H469"/>
+      <c r="I469"/>
+    </row>
+    <row r="470" spans="8:9">
+      <c r="H470"/>
+      <c r="I470"/>
+    </row>
+    <row r="471" spans="8:9">
+      <c r="H471"/>
+      <c r="I471"/>
+    </row>
+    <row r="472" spans="8:9">
+      <c r="H472"/>
+      <c r="I472"/>
+    </row>
+    <row r="473" spans="8:9">
+      <c r="H473"/>
+      <c r="I473"/>
+    </row>
+    <row r="474" spans="8:9">
+      <c r="H474"/>
+      <c r="I474"/>
+    </row>
+    <row r="475" spans="8:9">
+      <c r="H475"/>
+      <c r="I475"/>
+    </row>
+    <row r="476" spans="8:9">
+      <c r="H476"/>
+      <c r="I476"/>
+    </row>
+    <row r="477" spans="8:9">
+      <c r="H477"/>
+      <c r="I477"/>
+    </row>
+    <row r="478" spans="8:9">
+      <c r="H478"/>
+      <c r="I478"/>
+    </row>
+    <row r="479" spans="8:9">
+      <c r="H479"/>
+      <c r="I479"/>
+    </row>
+    <row r="480" spans="8:9">
+      <c r="H480"/>
+      <c r="I480"/>
+    </row>
+    <row r="481" spans="8:9">
+      <c r="H481"/>
+      <c r="I481"/>
+    </row>
+    <row r="482" spans="8:9">
+      <c r="H482"/>
+      <c r="I482"/>
+    </row>
+    <row r="483" spans="8:9">
+      <c r="H483"/>
+      <c r="I483"/>
+    </row>
+    <row r="484" spans="8:9">
+      <c r="H484"/>
+      <c r="I484"/>
+    </row>
+    <row r="485" spans="8:9">
+      <c r="H485"/>
+      <c r="I485"/>
+    </row>
+    <row r="486" spans="8:9">
+      <c r="H486"/>
+      <c r="I486"/>
+    </row>
+    <row r="487" spans="8:9">
+      <c r="H487"/>
+      <c r="I487"/>
+    </row>
+    <row r="488" spans="8:9">
+      <c r="H488"/>
+      <c r="I488"/>
+    </row>
+    <row r="489" spans="8:9">
+      <c r="H489"/>
+      <c r="I489"/>
+    </row>
+    <row r="490" spans="8:9">
+      <c r="H490"/>
+      <c r="I490"/>
+    </row>
+    <row r="491" spans="8:9">
+      <c r="H491"/>
+      <c r="I491"/>
+    </row>
+    <row r="492" spans="8:9">
+      <c r="H492"/>
+      <c r="I492"/>
+    </row>
+    <row r="493" spans="8:9">
+      <c r="H493"/>
+      <c r="I493"/>
+    </row>
+    <row r="494" spans="8:9">
+      <c r="H494"/>
+      <c r="I494"/>
+    </row>
+    <row r="495" spans="8:9">
+      <c r="H495"/>
+      <c r="I495"/>
+    </row>
+    <row r="496" spans="8:9">
+      <c r="H496"/>
+      <c r="I496"/>
+    </row>
+    <row r="497" spans="8:9">
+      <c r="H497"/>
+      <c r="I497"/>
+    </row>
+    <row r="498" spans="8:9">
+      <c r="H498"/>
+      <c r="I498"/>
+    </row>
+    <row r="499" spans="8:9">
+      <c r="H499"/>
+      <c r="I499"/>
+    </row>
+    <row r="500" spans="8:9">
+      <c r="H500"/>
+      <c r="I500"/>
+    </row>
+    <row r="501" spans="8:9">
+      <c r="H501"/>
+      <c r="I501"/>
+    </row>
+    <row r="502" spans="8:9">
+      <c r="H502"/>
+      <c r="I502"/>
+    </row>
+    <row r="503" spans="8:9">
+      <c r="H503"/>
+      <c r="I503"/>
+    </row>
+    <row r="504" spans="8:9">
+      <c r="H504"/>
+      <c r="I504"/>
+    </row>
+    <row r="505" spans="8:9">
+      <c r="H505"/>
+      <c r="I505"/>
+    </row>
+    <row r="506" spans="8:9">
+      <c r="H506"/>
+      <c r="I506"/>
+    </row>
+    <row r="507" spans="8:9">
+      <c r="H507"/>
+      <c r="I507"/>
+    </row>
+    <row r="508" spans="8:9">
+      <c r="H508"/>
+      <c r="I508"/>
+    </row>
+    <row r="509" spans="8:9">
+      <c r="H509"/>
+      <c r="I509"/>
+    </row>
+    <row r="510" spans="8:9">
+      <c r="H510"/>
+      <c r="I510"/>
+    </row>
+    <row r="511" spans="8:9">
+      <c r="H511"/>
+      <c r="I511"/>
+    </row>
+    <row r="512" spans="8:9">
+      <c r="H512"/>
+      <c r="I512"/>
+    </row>
+    <row r="513" spans="8:9">
+      <c r="H513"/>
+      <c r="I513"/>
+    </row>
+    <row r="514" spans="8:9">
+      <c r="H514"/>
+      <c r="I514"/>
+    </row>
+    <row r="515" spans="8:9">
+      <c r="H515"/>
+      <c r="I515"/>
+    </row>
+    <row r="516" spans="8:9">
+      <c r="H516"/>
+      <c r="I516"/>
+    </row>
+    <row r="517" spans="8:9">
+      <c r="H517"/>
+      <c r="I517"/>
+    </row>
+    <row r="518" spans="8:9">
+      <c r="H518"/>
+      <c r="I518"/>
+    </row>
+    <row r="519" spans="8:9">
+      <c r="H519"/>
+      <c r="I519"/>
+    </row>
+    <row r="520" spans="8:9">
+      <c r="H520"/>
+      <c r="I520"/>
+    </row>
+    <row r="521" spans="8:9">
+      <c r="H521"/>
+      <c r="I521"/>
+    </row>
+    <row r="522" spans="8:9">
+      <c r="H522"/>
+      <c r="I522"/>
+    </row>
+    <row r="523" spans="8:9">
+      <c r="H523"/>
+      <c r="I523"/>
+    </row>
+    <row r="524" spans="8:9">
+      <c r="H524"/>
+      <c r="I524"/>
+    </row>
+    <row r="525" spans="8:9">
+      <c r="H525"/>
+      <c r="I525"/>
+    </row>
+    <row r="526" spans="8:9">
+      <c r="H526"/>
+      <c r="I526"/>
+    </row>
+    <row r="527" spans="8:9">
+      <c r="H527"/>
+      <c r="I527"/>
+    </row>
+    <row r="528" spans="8:9">
+      <c r="H528"/>
+      <c r="I528"/>
+    </row>
+    <row r="529" spans="8:9">
+      <c r="H529"/>
+      <c r="I529"/>
+    </row>
+    <row r="530" spans="8:9">
+      <c r="H530"/>
+      <c r="I530"/>
+    </row>
+    <row r="531" spans="8:9">
+      <c r="H531"/>
+      <c r="I531"/>
+    </row>
+    <row r="532" spans="8:9">
+      <c r="H532"/>
+      <c r="I532"/>
+    </row>
+    <row r="533" spans="8:9">
+      <c r="H533"/>
+      <c r="I533"/>
+    </row>
+    <row r="534" spans="8:9">
+      <c r="H534"/>
+      <c r="I534"/>
+    </row>
+    <row r="535" spans="8:9">
+      <c r="H535"/>
+      <c r="I535"/>
+    </row>
+    <row r="536" spans="8:9">
+      <c r="H536"/>
+      <c r="I536"/>
+    </row>
+    <row r="537" spans="8:9">
+      <c r="H537"/>
+      <c r="I537"/>
+    </row>
+    <row r="538" spans="8:9">
+      <c r="H538"/>
+      <c r="I538"/>
+    </row>
+    <row r="539" spans="8:9">
+      <c r="H539"/>
+      <c r="I539"/>
+    </row>
+    <row r="540" spans="8:9">
+      <c r="H540"/>
+      <c r="I540"/>
+    </row>
+    <row r="541" spans="8:9">
+      <c r="H541"/>
+      <c r="I541"/>
+    </row>
+    <row r="542" spans="8:9">
+      <c r="H542"/>
+      <c r="I542"/>
+    </row>
+    <row r="543" spans="8:9">
+      <c r="H543"/>
+      <c r="I543"/>
+    </row>
+    <row r="544" spans="8:9">
+      <c r="H544"/>
+      <c r="I544"/>
+    </row>
+    <row r="545" spans="8:9">
+      <c r="H545"/>
+      <c r="I545"/>
+    </row>
+    <row r="546" spans="8:9">
+      <c r="H546"/>
+      <c r="I546"/>
+    </row>
+    <row r="547" spans="8:9">
+      <c r="H547"/>
+      <c r="I547"/>
+    </row>
+    <row r="548" spans="8:9">
+      <c r="H548"/>
+      <c r="I548"/>
+    </row>
+    <row r="549" spans="8:9">
+      <c r="H549"/>
+      <c r="I549"/>
+    </row>
+    <row r="550" spans="8:9">
+      <c r="H550"/>
+      <c r="I550"/>
+    </row>
+    <row r="551" spans="8:9">
+      <c r="H551"/>
+      <c r="I551"/>
+    </row>
+    <row r="552" spans="8:9">
+      <c r="H552"/>
+      <c r="I552"/>
+    </row>
+    <row r="553" spans="8:9">
+      <c r="H553"/>
+      <c r="I553"/>
+    </row>
+    <row r="554" spans="8:9">
+      <c r="H554"/>
+      <c r="I554"/>
+    </row>
+    <row r="555" spans="8:9">
+      <c r="H555"/>
+      <c r="I555"/>
+    </row>
+    <row r="556" spans="8:9">
+      <c r="H556"/>
+      <c r="I556"/>
+    </row>
+    <row r="557" spans="8:9">
+      <c r="H557"/>
+      <c r="I557"/>
+    </row>
+    <row r="558" spans="8:9">
+      <c r="H558"/>
+      <c r="I558"/>
+    </row>
+    <row r="559" spans="8:9">
+      <c r="H559"/>
+      <c r="I559"/>
+    </row>
+    <row r="560" spans="8:9">
+      <c r="H560"/>
+      <c r="I560"/>
+    </row>
+    <row r="561" spans="8:9">
+      <c r="H561"/>
+      <c r="I561"/>
+    </row>
+    <row r="562" spans="8:9">
+      <c r="H562"/>
+      <c r="I562"/>
+    </row>
+    <row r="563" spans="8:9">
+      <c r="H563"/>
+      <c r="I563"/>
+    </row>
+    <row r="564" spans="8:9">
+      <c r="H564"/>
+      <c r="I564"/>
+    </row>
+    <row r="565" spans="8:9">
+      <c r="H565"/>
+      <c r="I565"/>
+    </row>
+    <row r="566" spans="8:9">
+      <c r="H566"/>
+      <c r="I566"/>
+    </row>
+    <row r="567" spans="8:9">
+      <c r="H567"/>
+      <c r="I567"/>
+    </row>
+    <row r="568" spans="8:9">
+      <c r="H568"/>
+      <c r="I568"/>
+    </row>
+    <row r="569" spans="8:9">
+      <c r="H569"/>
+      <c r="I569"/>
+    </row>
+    <row r="570" spans="8:9">
+      <c r="H570"/>
+      <c r="I570"/>
+    </row>
+    <row r="571" spans="8:9">
+      <c r="H571"/>
+      <c r="I571"/>
+    </row>
+    <row r="572" spans="8:9">
+      <c r="H572"/>
+      <c r="I572"/>
+    </row>
+    <row r="573" spans="8:9">
+      <c r="H573"/>
+      <c r="I573"/>
+    </row>
+    <row r="574" spans="8:9">
+      <c r="H574"/>
+      <c r="I574"/>
+    </row>
+    <row r="575" spans="8:9">
+      <c r="H575"/>
+      <c r="I575"/>
+    </row>
+    <row r="576" spans="8:9">
+      <c r="H576"/>
+      <c r="I576"/>
+    </row>
+    <row r="577" spans="8:9">
+      <c r="H577"/>
+      <c r="I577"/>
+    </row>
+    <row r="578" spans="8:9">
+      <c r="H578"/>
+      <c r="I578"/>
+    </row>
+    <row r="579" spans="8:9">
+      <c r="H579"/>
+      <c r="I579"/>
+    </row>
+    <row r="580" spans="8:9">
+      <c r="H580"/>
+      <c r="I580"/>
+    </row>
+    <row r="581" spans="8:9">
+      <c r="H581"/>
+      <c r="I581"/>
+    </row>
+    <row r="582" spans="8:9">
+      <c r="H582"/>
+      <c r="I582"/>
+    </row>
+    <row r="583" spans="8:9">
+      <c r="H583"/>
+      <c r="I583"/>
+    </row>
+    <row r="584" spans="8:9">
+      <c r="H584"/>
+      <c r="I584"/>
+    </row>
+    <row r="585" spans="8:9">
+      <c r="H585"/>
+      <c r="I585"/>
+    </row>
+    <row r="586" spans="8:9">
+      <c r="H586"/>
+      <c r="I586"/>
+    </row>
+    <row r="587" spans="8:9">
+      <c r="H587"/>
+      <c r="I587"/>
+    </row>
+    <row r="588" spans="8:9">
+      <c r="H588"/>
+      <c r="I588"/>
+    </row>
+    <row r="589" spans="8:9">
+      <c r="H589"/>
+      <c r="I589"/>
+    </row>
+    <row r="590" spans="8:9">
+      <c r="H590"/>
+      <c r="I590"/>
+    </row>
+    <row r="591" spans="8:9">
+      <c r="H591"/>
+      <c r="I591"/>
+    </row>
+    <row r="592" spans="8:9">
+      <c r="H592"/>
+      <c r="I592"/>
+    </row>
+    <row r="593" spans="8:9">
+      <c r="H593"/>
+      <c r="I593"/>
+    </row>
+    <row r="594" spans="8:9">
+      <c r="H594"/>
+      <c r="I594"/>
+    </row>
+    <row r="595" spans="8:9">
+      <c r="H595"/>
+      <c r="I595"/>
+    </row>
+    <row r="596" spans="8:9">
+      <c r="H596"/>
+      <c r="I596"/>
+    </row>
+    <row r="597" spans="8:9">
+      <c r="H597"/>
+      <c r="I597"/>
+    </row>
+    <row r="598" spans="8:9">
+      <c r="H598"/>
+      <c r="I598"/>
+    </row>
+    <row r="599" spans="8:9">
+      <c r="H599"/>
+      <c r="I599"/>
+    </row>
+    <row r="600" spans="8:9">
+      <c r="H600"/>
+      <c r="I600"/>
+    </row>
+    <row r="601" spans="8:9">
+      <c r="H601"/>
+      <c r="I601"/>
+    </row>
+    <row r="602" spans="8:9">
+      <c r="H602"/>
+      <c r="I602"/>
+    </row>
+    <row r="603" spans="8:9">
+      <c r="H603"/>
+      <c r="I603"/>
+    </row>
+    <row r="604" spans="8:9">
+      <c r="H604"/>
+      <c r="I604"/>
+    </row>
+    <row r="605" spans="8:9">
+      <c r="H605"/>
+      <c r="I605"/>
+    </row>
+    <row r="606" spans="8:9">
+      <c r="H606"/>
+      <c r="I606"/>
+    </row>
+    <row r="607" spans="8:9">
+      <c r="H607"/>
+      <c r="I607"/>
+    </row>
+    <row r="608" spans="8:9">
+      <c r="H608"/>
+      <c r="I608"/>
+    </row>
+    <row r="609" spans="8:9">
+      <c r="H609"/>
+      <c r="I609"/>
+    </row>
+    <row r="610" spans="8:9">
+      <c r="H610"/>
+      <c r="I610"/>
+    </row>
+    <row r="611" spans="8:9">
+      <c r="H611"/>
+      <c r="I611"/>
+    </row>
+    <row r="612" spans="8:9">
+      <c r="H612"/>
+      <c r="I612"/>
+    </row>
+    <row r="613" spans="8:9">
+      <c r="H613"/>
+      <c r="I613"/>
+    </row>
+    <row r="614" spans="8:9">
+      <c r="H614"/>
+      <c r="I614"/>
+    </row>
+    <row r="615" spans="8:9">
+      <c r="H615"/>
+      <c r="I615"/>
+    </row>
+    <row r="616" spans="8:9">
+      <c r="H616"/>
+      <c r="I616"/>
+    </row>
+    <row r="617" spans="8:9">
+      <c r="H617"/>
+      <c r="I617"/>
+    </row>
+    <row r="618" spans="8:9">
+      <c r="H618"/>
+      <c r="I618"/>
+    </row>
+    <row r="619" spans="8:9">
+      <c r="H619"/>
+      <c r="I619"/>
+    </row>
+    <row r="620" spans="8:9">
+      <c r="H620"/>
+      <c r="I620"/>
+    </row>
+    <row r="621" spans="8:9">
+      <c r="H621"/>
+      <c r="I621"/>
+    </row>
+    <row r="622" spans="8:9">
+      <c r="H622"/>
+      <c r="I622"/>
+    </row>
+    <row r="623" spans="8:9">
+      <c r="H623"/>
+      <c r="I623"/>
+    </row>
+    <row r="624" spans="8:9">
+      <c r="H624"/>
+      <c r="I624"/>
+    </row>
+    <row r="625" spans="8:9">
+      <c r="H625"/>
+      <c r="I625"/>
+    </row>
+    <row r="626" spans="8:9">
+      <c r="H626"/>
+      <c r="I626"/>
+    </row>
+    <row r="627" spans="8:9">
+      <c r="H627"/>
+      <c r="I627"/>
+    </row>
+    <row r="628" spans="8:9">
+      <c r="H628"/>
+      <c r="I628"/>
+    </row>
+    <row r="629" spans="8:9">
+      <c r="H629"/>
+      <c r="I629"/>
+    </row>
+    <row r="630" spans="8:9">
+      <c r="H630"/>
+      <c r="I630"/>
+    </row>
+    <row r="631" spans="8:9">
+      <c r="H631"/>
+      <c r="I631"/>
+    </row>
+    <row r="632" spans="8:9">
+      <c r="H632"/>
+      <c r="I632"/>
+    </row>
+    <row r="633" spans="8:9">
+      <c r="H633"/>
+      <c r="I633"/>
+    </row>
+    <row r="634" spans="8:9">
+      <c r="H634"/>
+      <c r="I634"/>
+    </row>
+    <row r="635" spans="8:9">
+      <c r="H635"/>
+      <c r="I635"/>
+    </row>
+    <row r="636" spans="8:9">
+      <c r="H636"/>
+      <c r="I636"/>
+    </row>
+    <row r="637" spans="8:9">
+      <c r="H637"/>
+      <c r="I637"/>
+    </row>
+    <row r="638" spans="8:9">
+      <c r="H638"/>
+      <c r="I638"/>
+    </row>
+    <row r="639" spans="8:9">
+      <c r="H639"/>
+      <c r="I639"/>
+    </row>
+    <row r="640" spans="8:9">
+      <c r="H640"/>
+      <c r="I640"/>
+    </row>
+    <row r="641" spans="8:9">
+      <c r="H641"/>
+      <c r="I641"/>
+    </row>
+    <row r="642" spans="8:9">
+      <c r="H642"/>
+      <c r="I642"/>
+    </row>
+    <row r="643" spans="8:9">
+      <c r="H643"/>
+      <c r="I643"/>
+    </row>
+    <row r="644" spans="8:9">
+      <c r="H644"/>
+      <c r="I644"/>
+    </row>
+    <row r="645" spans="8:9">
+      <c r="H645"/>
+      <c r="I645"/>
+    </row>
+    <row r="646" spans="8:9">
+      <c r="H646"/>
+      <c r="I646"/>
+    </row>
+    <row r="647" spans="8:9">
+      <c r="H647"/>
+      <c r="I647"/>
+    </row>
+    <row r="648" spans="8:9">
+      <c r="H648"/>
+      <c r="I648"/>
+    </row>
+    <row r="649" spans="8:9">
+      <c r="H649"/>
+      <c r="I649"/>
+    </row>
+    <row r="650" spans="8:9">
+      <c r="H650"/>
+      <c r="I650"/>
+    </row>
+    <row r="651" spans="8:9">
+      <c r="H651"/>
+      <c r="I651"/>
+    </row>
+    <row r="652" spans="8:9">
+      <c r="H652"/>
+      <c r="I652"/>
+    </row>
+    <row r="653" spans="8:9">
+      <c r="H653"/>
+      <c r="I653"/>
+    </row>
+    <row r="654" spans="8:9">
+      <c r="H654"/>
+      <c r="I654"/>
+    </row>
+    <row r="655" spans="8:9">
+      <c r="H655"/>
+      <c r="I655"/>
+    </row>
+    <row r="656" spans="8:9">
+      <c r="H656"/>
+      <c r="I656"/>
+    </row>
+    <row r="657" spans="8:9">
+      <c r="H657"/>
+      <c r="I657"/>
+    </row>
+    <row r="658" spans="8:9">
+      <c r="H658"/>
+      <c r="I658"/>
+    </row>
+    <row r="659" spans="8:9">
+      <c r="H659"/>
+      <c r="I659"/>
+    </row>
+    <row r="660" spans="8:9">
+      <c r="H660"/>
+      <c r="I660"/>
+    </row>
+    <row r="661" spans="8:9">
+      <c r="H661"/>
+      <c r="I661"/>
+    </row>
+    <row r="662" spans="8:9">
+      <c r="H662"/>
+      <c r="I662"/>
+    </row>
+    <row r="663" spans="8:9">
+      <c r="H663"/>
+      <c r="I663"/>
+    </row>
+    <row r="664" spans="8:9">
+      <c r="H664"/>
+      <c r="I664"/>
+    </row>
+    <row r="665" spans="8:9">
+      <c r="H665"/>
+      <c r="I665"/>
+    </row>
+    <row r="666" spans="8:9">
+      <c r="H666"/>
+      <c r="I666"/>
+    </row>
+    <row r="667" spans="8:9">
+      <c r="H667"/>
+      <c r="I667"/>
+    </row>
+    <row r="668" spans="8:9">
+      <c r="H668"/>
+      <c r="I668"/>
+    </row>
+    <row r="669" spans="8:9">
+      <c r="H669"/>
+      <c r="I669"/>
+    </row>
+    <row r="670" spans="8:9">
+      <c r="H670"/>
+      <c r="I670"/>
+    </row>
+    <row r="671" spans="8:9">
+      <c r="H671"/>
+      <c r="I671"/>
+    </row>
+    <row r="672" spans="8:9">
+      <c r="H672"/>
+      <c r="I672"/>
+    </row>
+    <row r="673" spans="8:9">
+      <c r="H673"/>
+      <c r="I673"/>
+    </row>
+    <row r="674" spans="8:9">
+      <c r="H674"/>
+      <c r="I674"/>
+    </row>
+    <row r="675" spans="8:9">
+      <c r="H675"/>
+      <c r="I675"/>
+    </row>
+    <row r="676" spans="8:9">
+      <c r="H676"/>
+      <c r="I676"/>
+    </row>
+    <row r="677" spans="8:9">
+      <c r="H677"/>
+      <c r="I677"/>
+    </row>
+    <row r="678" spans="8:9">
+      <c r="H678"/>
+      <c r="I678"/>
+    </row>
+    <row r="679" spans="8:9">
+      <c r="H679"/>
+      <c r="I679"/>
+    </row>
+    <row r="680" spans="8:9">
+      <c r="H680"/>
+      <c r="I680"/>
+    </row>
+    <row r="681" spans="8:9">
+      <c r="H681"/>
+      <c r="I681"/>
+    </row>
+    <row r="682" spans="8:9">
+      <c r="H682"/>
+      <c r="I682"/>
+    </row>
+    <row r="683" spans="8:9">
+      <c r="H683"/>
+      <c r="I683"/>
+    </row>
+    <row r="684" spans="8:9">
+      <c r="H684"/>
+      <c r="I684"/>
+    </row>
+    <row r="685" spans="8:9">
+      <c r="H685"/>
+      <c r="I685"/>
+    </row>
+    <row r="686" spans="8:9">
+      <c r="H686"/>
+      <c r="I686"/>
+    </row>
+    <row r="687" spans="8:9">
+      <c r="H687"/>
+      <c r="I687"/>
+    </row>
+    <row r="688" spans="8:9">
+      <c r="H688"/>
+      <c r="I688"/>
+    </row>
+    <row r="689" spans="8:9">
+      <c r="H689"/>
+      <c r="I689"/>
+    </row>
+    <row r="690" spans="8:9">
+      <c r="H690"/>
+      <c r="I690"/>
+    </row>
+    <row r="691" spans="8:9">
+      <c r="H691"/>
+      <c r="I691"/>
+    </row>
+    <row r="692" spans="8:9">
+      <c r="H692"/>
+      <c r="I692"/>
+    </row>
+    <row r="693" spans="8:9">
+      <c r="H693"/>
+      <c r="I693"/>
+    </row>
+    <row r="694" spans="8:9">
+      <c r="H694"/>
+      <c r="I694"/>
+    </row>
+    <row r="695" spans="8:9">
+      <c r="H695"/>
+      <c r="I695"/>
+    </row>
+    <row r="696" spans="8:9">
+      <c r="H696"/>
+      <c r="I696"/>
+    </row>
+    <row r="697" spans="8:9">
+      <c r="H697"/>
+      <c r="I697"/>
+    </row>
+    <row r="698" spans="8:9">
+      <c r="H698"/>
+      <c r="I698"/>
+    </row>
+    <row r="699" spans="8:9">
+      <c r="H699"/>
+      <c r="I699"/>
+    </row>
+    <row r="700" spans="8:9">
+      <c r="H700"/>
+      <c r="I700"/>
+    </row>
+    <row r="701" spans="8:9">
+      <c r="H701"/>
+      <c r="I701"/>
+    </row>
+    <row r="702" spans="8:9">
+      <c r="H702"/>
+      <c r="I702"/>
+    </row>
+    <row r="703" spans="8:9">
+      <c r="H703"/>
+      <c r="I703"/>
+    </row>
+    <row r="704" spans="8:9">
+      <c r="H704"/>
+      <c r="I704"/>
+    </row>
+    <row r="705" spans="8:9">
+      <c r="H705"/>
+      <c r="I705"/>
+    </row>
+    <row r="706" spans="8:9">
+      <c r="H706"/>
+      <c r="I706"/>
+    </row>
+    <row r="707" spans="8:9">
+      <c r="H707"/>
+      <c r="I707"/>
+    </row>
+    <row r="708" spans="8:9">
+      <c r="H708"/>
+      <c r="I708"/>
+    </row>
+    <row r="709" spans="8:9">
+      <c r="H709"/>
+      <c r="I709"/>
+    </row>
+    <row r="710" spans="8:9">
+      <c r="H710"/>
+      <c r="I710"/>
+    </row>
+    <row r="711" spans="8:9">
+      <c r="H711"/>
+      <c r="I711"/>
+    </row>
+    <row r="712" spans="8:9">
+      <c r="H712"/>
+      <c r="I712"/>
+    </row>
+    <row r="713" spans="8:9">
+      <c r="H713"/>
+      <c r="I713"/>
+    </row>
+    <row r="714" spans="8:9">
+      <c r="H714"/>
+      <c r="I714"/>
+    </row>
+    <row r="715" spans="8:9">
+      <c r="H715"/>
+      <c r="I715"/>
+    </row>
+    <row r="716" spans="8:9">
+      <c r="H716"/>
+      <c r="I716"/>
+    </row>
+    <row r="717" spans="8:9">
+      <c r="H717"/>
+      <c r="I717"/>
+    </row>
+    <row r="718" spans="8:9">
+      <c r="H718"/>
+      <c r="I718"/>
+    </row>
+    <row r="719" spans="8:9">
+      <c r="H719"/>
+      <c r="I719"/>
+    </row>
+    <row r="720" spans="8:9">
+      <c r="H720"/>
+      <c r="I720"/>
+    </row>
+    <row r="721" spans="8:9">
+      <c r="H721"/>
+      <c r="I721"/>
+    </row>
+    <row r="722" spans="8:9">
+      <c r="H722"/>
+      <c r="I722"/>
+    </row>
+    <row r="723" spans="8:9">
+      <c r="H723"/>
+      <c r="I723"/>
+    </row>
+    <row r="724" spans="8:9">
+      <c r="H724"/>
+      <c r="I724"/>
+    </row>
+    <row r="725" spans="8:9">
+      <c r="H725"/>
+      <c r="I725"/>
+    </row>
+    <row r="726" spans="8:9">
+      <c r="H726"/>
+      <c r="I726"/>
+    </row>
+    <row r="727" spans="8:9">
+      <c r="H727"/>
+      <c r="I727"/>
+    </row>
+    <row r="728" spans="8:9">
+      <c r="H728"/>
+      <c r="I728"/>
+    </row>
+    <row r="729" spans="8:9">
+      <c r="H729"/>
+      <c r="I729"/>
+    </row>
+    <row r="730" spans="8:9">
+      <c r="H730"/>
+      <c r="I730"/>
+    </row>
+    <row r="731" spans="8:9">
+      <c r="H731"/>
+      <c r="I731"/>
+    </row>
+    <row r="732" spans="8:9">
+      <c r="H732"/>
+      <c r="I732"/>
+    </row>
+    <row r="733" spans="8:9">
+      <c r="H733"/>
+      <c r="I733"/>
+    </row>
+    <row r="734" spans="8:9">
+      <c r="H734"/>
+      <c r="I734"/>
+    </row>
+    <row r="735" spans="8:9">
+      <c r="H735"/>
+      <c r="I735"/>
+    </row>
+    <row r="736" spans="8:9">
+      <c r="H736"/>
+      <c r="I736"/>
+    </row>
+    <row r="737" spans="8:9">
+      <c r="H737"/>
+      <c r="I737"/>
+    </row>
+    <row r="738" spans="8:9">
+      <c r="H738"/>
+      <c r="I738"/>
+    </row>
+    <row r="739" spans="8:9">
+      <c r="H739"/>
+      <c r="I739"/>
+    </row>
+    <row r="740" spans="8:9">
+      <c r="H740"/>
+      <c r="I740"/>
+    </row>
+    <row r="741" spans="8:9">
+      <c r="H741"/>
+      <c r="I741"/>
+    </row>
+    <row r="742" spans="8:9">
+      <c r="H742"/>
+      <c r="I742"/>
+    </row>
+    <row r="743" spans="8:9">
+      <c r="H743"/>
+      <c r="I743"/>
+    </row>
+    <row r="744" spans="8:9">
+      <c r="H744"/>
+      <c r="I744"/>
+    </row>
+    <row r="745" spans="8:9">
+      <c r="H745"/>
+      <c r="I745"/>
+    </row>
+    <row r="746" spans="8:9">
+      <c r="H746"/>
+      <c r="I746"/>
+    </row>
+    <row r="747" spans="8:9">
+      <c r="H747"/>
+      <c r="I747"/>
+    </row>
+    <row r="748" spans="8:9">
+      <c r="H748"/>
+      <c r="I748"/>
+    </row>
+    <row r="749" spans="8:9">
+      <c r="H749"/>
+      <c r="I749"/>
+    </row>
+    <row r="750" spans="8:9">
+      <c r="H750"/>
+      <c r="I750"/>
+    </row>
+    <row r="751" spans="8:9">
+      <c r="H751"/>
+      <c r="I751"/>
+    </row>
+    <row r="752" spans="8:9">
+      <c r="H752"/>
+      <c r="I752"/>
+    </row>
+    <row r="753" spans="8:9">
+      <c r="H753"/>
+      <c r="I753"/>
+    </row>
+    <row r="754" spans="8:9">
+      <c r="H754"/>
+      <c r="I754"/>
+    </row>
+    <row r="755" spans="8:9">
+      <c r="H755"/>
+      <c r="I755"/>
+    </row>
+    <row r="756" spans="8:9">
+      <c r="H756"/>
+      <c r="I756"/>
+    </row>
+    <row r="757" spans="8:9">
+      <c r="H757"/>
+      <c r="I757"/>
+    </row>
+    <row r="758" spans="8:9">
+      <c r="H758"/>
+      <c r="I758"/>
+    </row>
+    <row r="759" spans="8:9">
+      <c r="H759"/>
+      <c r="I759"/>
+    </row>
+    <row r="760" spans="8:9">
+      <c r="H760"/>
+      <c r="I760"/>
+    </row>
+    <row r="761" spans="8:9">
+      <c r="H761"/>
+      <c r="I761"/>
+    </row>
+    <row r="762" spans="8:9">
+      <c r="H762"/>
+      <c r="I762"/>
+    </row>
+    <row r="763" spans="8:9">
+      <c r="H763"/>
+      <c r="I763"/>
+    </row>
+    <row r="764" spans="8:9">
+      <c r="H764"/>
+      <c r="I764"/>
+    </row>
+    <row r="765" spans="8:9">
+      <c r="H765"/>
+      <c r="I765"/>
+    </row>
+    <row r="766" spans="8:9">
+      <c r="H766"/>
+      <c r="I766"/>
+    </row>
+    <row r="767" spans="8:9">
+      <c r="H767"/>
+      <c r="I767"/>
+    </row>
+    <row r="768" spans="8:9">
+      <c r="H768"/>
+      <c r="I768"/>
+    </row>
+    <row r="769" spans="8:9">
+      <c r="H769"/>
+      <c r="I769"/>
+    </row>
+    <row r="770" spans="8:9">
+      <c r="H770"/>
+      <c r="I770"/>
+    </row>
+    <row r="771" spans="8:9">
+      <c r="H771"/>
+      <c r="I771"/>
+    </row>
+    <row r="772" spans="8:9">
+      <c r="H772"/>
+      <c r="I772"/>
+    </row>
+    <row r="773" spans="8:9">
+      <c r="H773"/>
+      <c r="I773"/>
+    </row>
+    <row r="774" spans="8:9">
+      <c r="H774"/>
+      <c r="I774"/>
+    </row>
+    <row r="775" spans="8:9">
+      <c r="H775"/>
+      <c r="I775"/>
+    </row>
+    <row r="776" spans="8:9">
+      <c r="H776"/>
+      <c r="I776"/>
+    </row>
+    <row r="777" spans="8:9">
+      <c r="H777"/>
+      <c r="I777"/>
+    </row>
+    <row r="778" spans="8:9">
+      <c r="H778"/>
+      <c r="I778"/>
+    </row>
+    <row r="779" spans="8:9">
+      <c r="H779"/>
+      <c r="I779"/>
+    </row>
+    <row r="780" spans="8:9">
+      <c r="H780"/>
+      <c r="I780"/>
+    </row>
+    <row r="781" spans="8:9">
+      <c r="H781"/>
+      <c r="I781"/>
+    </row>
+    <row r="782" spans="8:9">
+      <c r="H782"/>
+      <c r="I782"/>
+    </row>
+    <row r="783" spans="8:9">
+      <c r="H783"/>
+      <c r="I783"/>
+    </row>
+    <row r="784" spans="8:9">
+      <c r="H784"/>
+      <c r="I784"/>
+    </row>
+    <row r="785" spans="8:9">
+      <c r="H785"/>
+      <c r="I785"/>
+    </row>
+    <row r="786" spans="8:9">
+      <c r="H786"/>
+      <c r="I786"/>
+    </row>
+    <row r="787" spans="8:9">
+      <c r="H787"/>
+      <c r="I787"/>
+    </row>
+    <row r="788" spans="8:9">
+      <c r="H788"/>
+      <c r="I788"/>
+    </row>
+    <row r="789" spans="8:9">
+      <c r="H789"/>
+      <c r="I789"/>
+    </row>
+    <row r="790" spans="8:9">
+      <c r="H790"/>
+      <c r="I790"/>
+    </row>
+    <row r="791" spans="8:9">
+      <c r="H791"/>
+      <c r="I791"/>
+    </row>
+    <row r="792" spans="8:9">
+      <c r="H792"/>
+      <c r="I792"/>
+    </row>
+    <row r="793" spans="8:9">
+      <c r="H793"/>
+      <c r="I793"/>
+    </row>
+    <row r="794" spans="8:9">
+      <c r="H794"/>
+      <c r="I794"/>
+    </row>
+    <row r="795" spans="8:9">
+      <c r="H795"/>
+      <c r="I795"/>
+    </row>
+    <row r="796" spans="8:9">
+      <c r="H796"/>
+      <c r="I796"/>
+    </row>
+    <row r="797" spans="8:9">
+      <c r="H797"/>
+      <c r="I797"/>
+    </row>
+    <row r="798" spans="8:9">
+      <c r="H798"/>
+      <c r="I798"/>
+    </row>
+    <row r="799" spans="8:9">
+      <c r="H799"/>
+      <c r="I799"/>
+    </row>
+    <row r="800" spans="8:9">
+      <c r="H800"/>
+      <c r="I800"/>
+    </row>
+    <row r="801" spans="8:9">
+      <c r="H801"/>
+      <c r="I801"/>
+    </row>
+    <row r="802" spans="8:9">
+      <c r="H802"/>
+      <c r="I802"/>
+    </row>
+    <row r="803" spans="8:9">
+      <c r="H803"/>
+      <c r="I803"/>
+    </row>
+    <row r="804" spans="8:9">
+      <c r="H804"/>
+      <c r="I804"/>
+    </row>
+    <row r="805" spans="8:9">
+      <c r="H805"/>
+      <c r="I805"/>
+    </row>
+    <row r="806" spans="8:9">
+      <c r="H806"/>
+      <c r="I806"/>
+    </row>
+    <row r="807" spans="8:9">
+      <c r="H807"/>
+      <c r="I807"/>
+    </row>
+    <row r="808" spans="8:9">
+      <c r="H808"/>
+      <c r="I808"/>
+    </row>
+    <row r="809" spans="8:9">
+      <c r="H809"/>
+      <c r="I809"/>
+    </row>
+    <row r="810" spans="8:9">
+      <c r="H810"/>
+      <c r="I810"/>
+    </row>
+    <row r="811" spans="8:9">
+      <c r="H811"/>
+      <c r="I811"/>
+    </row>
+    <row r="812" spans="8:9">
+      <c r="H812"/>
+      <c r="I812"/>
+    </row>
+    <row r="813" spans="8:9">
+      <c r="H813"/>
+      <c r="I813"/>
+    </row>
+    <row r="814" spans="8:9">
+      <c r="H814"/>
+      <c r="I814"/>
+    </row>
+    <row r="815" spans="8:9">
+      <c r="H815"/>
+      <c r="I815"/>
+    </row>
+    <row r="816" spans="8:9">
+      <c r="H816"/>
+      <c r="I816"/>
+    </row>
+    <row r="817" spans="8:9">
+      <c r="H817"/>
+      <c r="I817"/>
+    </row>
+    <row r="818" spans="8:9">
+      <c r="H818"/>
+      <c r="I818"/>
+    </row>
+    <row r="819" spans="8:9">
+      <c r="H819"/>
+      <c r="I819"/>
+    </row>
+    <row r="820" spans="8:9">
+      <c r="H820"/>
+      <c r="I820"/>
+    </row>
+    <row r="821" spans="8:9">
+      <c r="H821"/>
+      <c r="I821"/>
+    </row>
+    <row r="822" spans="8:9">
+      <c r="H822"/>
+      <c r="I822"/>
+    </row>
+    <row r="823" spans="8:9">
+      <c r="H823"/>
+      <c r="I823"/>
+    </row>
+    <row r="824" spans="8:9">
+      <c r="H824"/>
+      <c r="I824"/>
+    </row>
+    <row r="825" spans="8:9">
+      <c r="H825"/>
+      <c r="I825"/>
+    </row>
+    <row r="826" spans="8:9">
+      <c r="H826"/>
+      <c r="I826"/>
+    </row>
+    <row r="827" spans="8:9">
+      <c r="H827"/>
+      <c r="I827"/>
+    </row>
+    <row r="828" spans="8:9">
+      <c r="H828"/>
+      <c r="I828"/>
+    </row>
+    <row r="829" spans="8:9">
+      <c r="H829"/>
+      <c r="I829"/>
+    </row>
+    <row r="830" spans="8:9">
+      <c r="H830"/>
+      <c r="I830"/>
+    </row>
+    <row r="831" spans="8:9">
+      <c r="H831"/>
+      <c r="I831"/>
+    </row>
+    <row r="832" spans="8:9">
+      <c r="H832"/>
+      <c r="I832"/>
+    </row>
+    <row r="833" spans="8:9">
+      <c r="H833"/>
+      <c r="I833"/>
+    </row>
+    <row r="834" spans="8:9">
+      <c r="H834"/>
+      <c r="I834"/>
+    </row>
+    <row r="835" spans="8:9">
+      <c r="H835"/>
+      <c r="I835"/>
+    </row>
+    <row r="836" spans="8:9">
+      <c r="H836"/>
+      <c r="I836"/>
+    </row>
+    <row r="837" spans="8:9">
+      <c r="H837"/>
+      <c r="I837"/>
+    </row>
+    <row r="838" spans="8:9">
+      <c r="H838"/>
+      <c r="I838"/>
+    </row>
+    <row r="839" spans="8:9">
+      <c r="H839"/>
+      <c r="I839"/>
+    </row>
+    <row r="840" spans="8:9">
+      <c r="H840"/>
+      <c r="I840"/>
+    </row>
+    <row r="841" spans="8:9">
+      <c r="H841"/>
+      <c r="I841"/>
+    </row>
+    <row r="842" spans="8:9">
+      <c r="H842"/>
+      <c r="I842"/>
+    </row>
+    <row r="843" spans="8:9">
+      <c r="H843"/>
+      <c r="I843"/>
+    </row>
+    <row r="844" spans="8:9">
+      <c r="H844"/>
+      <c r="I844"/>
+    </row>
+    <row r="845" spans="8:9">
+      <c r="H845"/>
+      <c r="I845"/>
+    </row>
+    <row r="846" spans="8:9">
+      <c r="H846"/>
+      <c r="I846"/>
+    </row>
+    <row r="847" spans="8:9">
+      <c r="H847"/>
+      <c r="I847"/>
+    </row>
+    <row r="848" spans="8:9">
+      <c r="H848"/>
+      <c r="I848"/>
+    </row>
+    <row r="849" spans="8:9">
+      <c r="H849"/>
+      <c r="I849"/>
+    </row>
+    <row r="850" spans="8:9">
+      <c r="H850"/>
+      <c r="I850"/>
+    </row>
+    <row r="851" spans="8:9">
+      <c r="H851"/>
+      <c r="I851"/>
+    </row>
+    <row r="852" spans="8:9">
+      <c r="H852"/>
+      <c r="I852"/>
+    </row>
+    <row r="853" spans="8:9">
+      <c r="H853"/>
+      <c r="I853"/>
+    </row>
+    <row r="854" spans="8:9">
+      <c r="H854"/>
+      <c r="I854"/>
+    </row>
+    <row r="855" spans="8:9">
+      <c r="H855"/>
+      <c r="I855"/>
+    </row>
+    <row r="856" spans="8:9">
+      <c r="H856"/>
+      <c r="I856"/>
+    </row>
+    <row r="857" spans="8:9">
+      <c r="H857"/>
+      <c r="I857"/>
+    </row>
+    <row r="858" spans="8:9">
+      <c r="H858"/>
+      <c r="I858"/>
+    </row>
+    <row r="859" spans="8:9">
+      <c r="H859"/>
+      <c r="I859"/>
+    </row>
+    <row r="860" spans="8:9">
+      <c r="H860"/>
+      <c r="I860"/>
+    </row>
+    <row r="861" spans="8:9">
+      <c r="H861"/>
+      <c r="I861"/>
+    </row>
+    <row r="862" spans="8:9">
+      <c r="H862"/>
+      <c r="I862"/>
+    </row>
+    <row r="863" spans="8:9">
+      <c r="H863"/>
+      <c r="I863"/>
+    </row>
+    <row r="864" spans="8:9">
+      <c r="H864"/>
+      <c r="I864"/>
+    </row>
+    <row r="865" spans="8:9">
+      <c r="H865"/>
+      <c r="I865"/>
+    </row>
+    <row r="866" spans="8:9">
+      <c r="H866"/>
+      <c r="I866"/>
+    </row>
+    <row r="867" spans="8:9">
+      <c r="H867"/>
+      <c r="I867"/>
+    </row>
+    <row r="868" spans="8:9">
+      <c r="H868"/>
+      <c r="I868"/>
+    </row>
+    <row r="869" spans="8:9">
+      <c r="H869"/>
+      <c r="I869"/>
+    </row>
+    <row r="870" spans="8:9">
+      <c r="H870"/>
+      <c r="I870"/>
+    </row>
+    <row r="871" spans="8:9">
+      <c r="H871"/>
+      <c r="I871"/>
+    </row>
+    <row r="872" spans="8:9">
+      <c r="H872"/>
+      <c r="I872"/>
+    </row>
+    <row r="873" spans="8:9">
+      <c r="H873"/>
+      <c r="I873"/>
+    </row>
+    <row r="874" spans="8:9">
+      <c r="H874"/>
+      <c r="I874"/>
+    </row>
+    <row r="875" spans="8:9">
+      <c r="H875"/>
+      <c r="I875"/>
+    </row>
+    <row r="876" spans="8:9">
+      <c r="H876"/>
+      <c r="I876"/>
+    </row>
+    <row r="877" spans="8:9">
+      <c r="H877"/>
+      <c r="I877"/>
+    </row>
+    <row r="878" spans="8:9">
+      <c r="H878"/>
+      <c r="I878"/>
+    </row>
+    <row r="879" spans="8:9">
+      <c r="H879"/>
+      <c r="I879"/>
+    </row>
+    <row r="880" spans="8:9">
+      <c r="H880"/>
+      <c r="I880"/>
+    </row>
+    <row r="881" spans="8:9">
+      <c r="H881"/>
+      <c r="I881"/>
+    </row>
+    <row r="882" spans="8:9">
+      <c r="H882"/>
+      <c r="I882"/>
+    </row>
+    <row r="883" spans="8:9">
+      <c r="H883"/>
+      <c r="I883"/>
+    </row>
+    <row r="884" spans="8:9">
+      <c r="H884"/>
+      <c r="I884"/>
+    </row>
+    <row r="885" spans="8:9">
+      <c r="H885"/>
+      <c r="I885"/>
+    </row>
+    <row r="886" spans="8:9">
+      <c r="H886"/>
+      <c r="I886"/>
+    </row>
+    <row r="887" spans="8:9">
+      <c r="H887"/>
+      <c r="I887"/>
+    </row>
+    <row r="888" spans="8:9">
+      <c r="H888"/>
+      <c r="I888"/>
+    </row>
+    <row r="889" spans="8:9">
+      <c r="H889"/>
+      <c r="I889"/>
+    </row>
+    <row r="890" spans="8:9">
+      <c r="H890"/>
+      <c r="I890"/>
+    </row>
+    <row r="891" spans="8:9">
+      <c r="H891"/>
+      <c r="I891"/>
+    </row>
+    <row r="892" spans="8:9">
+      <c r="H892"/>
+      <c r="I892"/>
+    </row>
+    <row r="893" spans="8:9">
+      <c r="H893"/>
+      <c r="I893"/>
+    </row>
+    <row r="894" spans="8:9">
+      <c r="H894"/>
+      <c r="I894"/>
+    </row>
+    <row r="895" spans="8:9">
+      <c r="H895"/>
+      <c r="I895"/>
+    </row>
+    <row r="896" spans="8:9">
+      <c r="H896"/>
+      <c r="I896"/>
+    </row>
+    <row r="897" spans="8:9">
+      <c r="H897"/>
+      <c r="I897"/>
+    </row>
+    <row r="898" spans="8:9">
+      <c r="H898"/>
+      <c r="I898"/>
+    </row>
+    <row r="899" spans="8:9">
+      <c r="H899"/>
+      <c r="I899"/>
+    </row>
+    <row r="900" spans="8:9">
+      <c r="H900"/>
+      <c r="I900"/>
+    </row>
+    <row r="901" spans="8:9">
+      <c r="H901"/>
+      <c r="I901"/>
+    </row>
+    <row r="902" spans="8:9">
+      <c r="H902"/>
+      <c r="I902"/>
+    </row>
+    <row r="903" spans="8:9">
+      <c r="H903"/>
+      <c r="I903"/>
+    </row>
+    <row r="904" spans="8:9">
+      <c r="H904"/>
+      <c r="I904"/>
+    </row>
+    <row r="905" spans="8:9">
+      <c r="H905"/>
+      <c r="I905"/>
+    </row>
+    <row r="906" spans="8:9">
+      <c r="H906"/>
+      <c r="I906"/>
+    </row>
+    <row r="907" spans="8:9">
+      <c r="H907"/>
+      <c r="I907"/>
+    </row>
+    <row r="908" spans="8:9">
+      <c r="H908"/>
+      <c r="I908"/>
+    </row>
+    <row r="909" spans="8:9">
+      <c r="H909"/>
+      <c r="I909"/>
+    </row>
+    <row r="910" spans="8:9">
+      <c r="H910"/>
+      <c r="I910"/>
+    </row>
+    <row r="911" spans="8:9">
+      <c r="H911"/>
+      <c r="I911"/>
+    </row>
+    <row r="912" spans="8:9">
+      <c r="H912"/>
+      <c r="I912"/>
+    </row>
+    <row r="913" spans="8:9">
+      <c r="H913"/>
+      <c r="I913"/>
+    </row>
+    <row r="914" spans="8:9">
+      <c r="H914"/>
+      <c r="I914"/>
+    </row>
+    <row r="915" spans="8:9">
+      <c r="H915"/>
+      <c r="I915"/>
+    </row>
+    <row r="916" spans="8:9">
+      <c r="H916"/>
+      <c r="I916"/>
+    </row>
+    <row r="917" spans="8:9">
+      <c r="H917"/>
+      <c r="I917"/>
+    </row>
+    <row r="918" spans="8:9">
+      <c r="H918"/>
+      <c r="I918"/>
+    </row>
+    <row r="919" spans="8:9">
+      <c r="H919"/>
+      <c r="I919"/>
+    </row>
+    <row r="920" spans="8:9">
+      <c r="H920"/>
+      <c r="I920"/>
+    </row>
+    <row r="921" spans="8:9">
+      <c r="H921"/>
+      <c r="I921"/>
+    </row>
+    <row r="922" spans="8:9">
+      <c r="H922"/>
+      <c r="I922"/>
+    </row>
+    <row r="923" spans="8:9">
+      <c r="H923"/>
+      <c r="I923"/>
+    </row>
+    <row r="924" spans="8:9">
+      <c r="H924"/>
+      <c r="I924"/>
+    </row>
+    <row r="925" spans="8:9">
+      <c r="H925"/>
+      <c r="I925"/>
+    </row>
+    <row r="926" spans="8:9">
+      <c r="H926"/>
+      <c r="I926"/>
+    </row>
+    <row r="927" spans="8:9">
+      <c r="H927"/>
+      <c r="I927"/>
+    </row>
+    <row r="928" spans="8:9">
+      <c r="H928"/>
+      <c r="I928"/>
+    </row>
+    <row r="929" spans="8:9">
+      <c r="H929"/>
+      <c r="I929"/>
+    </row>
+    <row r="930" spans="8:9">
+      <c r="H930"/>
+      <c r="I930"/>
+    </row>
+    <row r="931" spans="8:9">
+      <c r="H931"/>
+      <c r="I931"/>
+    </row>
+    <row r="932" spans="8:9">
+      <c r="H932"/>
+      <c r="I932"/>
+    </row>
+    <row r="933" spans="8:9">
+      <c r="H933"/>
+      <c r="I933"/>
+    </row>
+    <row r="934" spans="8:9">
+      <c r="H934"/>
+      <c r="I934"/>
+    </row>
+    <row r="935" spans="8:9">
+      <c r="H935"/>
+      <c r="I935"/>
+    </row>
+    <row r="936" spans="8:9">
+      <c r="H936"/>
+      <c r="I936"/>
+    </row>
+    <row r="937" spans="8:9">
+      <c r="H937"/>
+      <c r="I937"/>
+    </row>
+    <row r="938" spans="8:9">
+      <c r="H938"/>
+      <c r="I938"/>
+    </row>
+    <row r="939" spans="8:9">
+      <c r="H939"/>
+      <c r="I939"/>
+    </row>
+    <row r="940" spans="8:9">
+      <c r="H940"/>
+      <c r="I940"/>
+    </row>
+    <row r="941" spans="8:9">
+      <c r="H941"/>
+      <c r="I941"/>
+    </row>
+    <row r="942" spans="8:9">
+      <c r="H942"/>
+      <c r="I942"/>
+    </row>
+    <row r="943" spans="8:9">
+      <c r="H943"/>
+      <c r="I943"/>
+    </row>
+    <row r="944" spans="8:9">
+      <c r="H944"/>
+      <c r="I944"/>
+    </row>
+    <row r="945" spans="8:9">
+      <c r="H945"/>
+      <c r="I945"/>
+    </row>
+    <row r="946" spans="8:9">
+      <c r="H946"/>
+      <c r="I946"/>
+    </row>
+    <row r="947" spans="8:9">
+      <c r="H947"/>
+      <c r="I947"/>
+    </row>
+    <row r="948" spans="8:9">
+      <c r="H948"/>
+      <c r="I948"/>
+    </row>
+    <row r="949" spans="8:9">
+      <c r="H949"/>
+      <c r="I949"/>
+    </row>
+    <row r="950" spans="8:9">
+      <c r="H950"/>
+      <c r="I950"/>
+    </row>
+    <row r="951" spans="8:9">
+      <c r="H951"/>
+      <c r="I951"/>
+    </row>
+    <row r="952" spans="8:9">
+      <c r="H952"/>
+      <c r="I952"/>
+    </row>
+    <row r="953" spans="8:9">
+      <c r="H953"/>
+      <c r="I953"/>
+    </row>
+    <row r="954" spans="8:9">
+      <c r="H954"/>
+      <c r="I954"/>
+    </row>
+    <row r="955" spans="8:9">
+      <c r="H955"/>
+      <c r="I955"/>
+    </row>
+    <row r="956" spans="8:9">
+      <c r="H956"/>
+      <c r="I956"/>
+    </row>
+    <row r="957" spans="8:9">
+      <c r="H957"/>
+      <c r="I957"/>
+    </row>
+    <row r="958" spans="8:9">
+      <c r="H958"/>
+      <c r="I958"/>
+    </row>
+    <row r="959" spans="8:9">
+      <c r="H959"/>
+      <c r="I959"/>
+    </row>
+    <row r="960" spans="8:9">
+      <c r="H960"/>
+      <c r="I960"/>
+    </row>
+    <row r="961" spans="8:9">
+      <c r="H961"/>
+      <c r="I961"/>
+    </row>
+    <row r="962" spans="8:9">
+      <c r="H962"/>
+      <c r="I962"/>
+    </row>
+    <row r="963" spans="8:9">
+      <c r="H963"/>
+      <c r="I963"/>
+    </row>
+    <row r="964" spans="8:9">
+      <c r="H964"/>
+      <c r="I964"/>
+    </row>
+    <row r="965" spans="8:9">
+      <c r="H965"/>
+      <c r="I965"/>
+    </row>
+    <row r="966" spans="8:9">
+      <c r="H966"/>
+      <c r="I966"/>
+    </row>
+    <row r="967" spans="8:9">
+      <c r="H967"/>
+      <c r="I967"/>
+    </row>
+    <row r="968" spans="8:9">
+      <c r="H968"/>
+      <c r="I968"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -777,6 +5005,20 @@
     <hyperlink ref="G7" r:id="rId6" xr:uid="{BAE33336-A5C6-4835-BB90-4283A61186D7}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{096B211F-8090-4F1C-9D66-C46D0A7FE2DC}"/>
     <hyperlink ref="G9" r:id="rId8" xr:uid="{BEECB7AB-59A1-4E22-95C4-71C0D3922C3D}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{46B161DA-DC77-4723-A6A0-439EF5E803D4}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{E1EE38C1-6444-4EAB-B3B0-30F93A28F248}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{F8324EBE-9039-40B1-B5A4-2956BC8167D4}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{FE21183E-D455-435D-A06E-3DCCF15867DA}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{113B33C0-DFDE-4D4C-A75D-A12B90DB3608}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{C6A559E4-84E4-4E48-A7D0-666533BFB4AE}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{7812CAE0-9655-4E76-BDF6-F503ADE85E3B}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{33821C88-D15D-46B2-A7FB-11DAE3DEB58B}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{4BD5B09F-79EF-4424-B1F6-F470C33598C1}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{5A60EB95-3022-4660-82BC-7BA100EFE698}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{CB95BE80-8897-4E6F-B45B-57C2908A50B1}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{F73054A0-6457-46B8-B0D7-1FC09BB4D8FE}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{8157F5E8-720F-414C-BF7B-85B7D9A6C73C}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{D1AE984A-F2BD-44F5-8299-CF9E357435A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
